--- a/confusion matrix.xlsx
+++ b/confusion matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlach\Documents\Rice\Junior\Semester 1\LING 401\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlach\Documents\Rice\Junior\Semester 1\LING 401\Final Project\palatal-stops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D429EB-D959-49F0-B24E-726351112593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3FA8D-49FC-4943-8729-2DD33912AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nathan" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F269D-11A2-431C-ACEA-B30AE1BA1E82}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2056,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F1D2D-114C-492F-BE4E-6CE15B77C190}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
